--- a/output/condition/田中沙季_condition.xlsx
+++ b/output/condition/田中沙季_condition.xlsx
@@ -1,147 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
-  <si>
-    <t>レポート年</t>
-  </si>
-  <si>
-    <t>レポート月</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>心拍数</t>
-  </si>
-  <si>
-    <t>体温</t>
-  </si>
-  <si>
-    <t>SPO2</t>
-  </si>
-  <si>
-    <t>体調 [疲労感]</t>
-  </si>
-  <si>
-    <t>体調 [倦怠感]</t>
-  </si>
-  <si>
-    <t>体調 [食欲]</t>
-  </si>
-  <si>
-    <t>体調 [今の体調]</t>
-  </si>
-  <si>
-    <t>体調 [意欲]</t>
-  </si>
-  <si>
-    <t>ケガなど [首の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [肩の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [背中の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [腰の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [下腿部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [足部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [その他]</t>
-  </si>
-  <si>
-    <t>上記で「その他」と回答した場合に記載</t>
-  </si>
-  <si>
-    <t>2020年度</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>田中沙季</t>
-  </si>
-  <si>
-    <t>手首を痛めた</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,781 +420,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>レポート年</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>レポート月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>心拍数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>体温</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SPO2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [疲労感]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [倦怠感]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [食欲]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [今の体調]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [意欲]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [首の痛み]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [肩の痛み]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [背中の痛み]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [腰の痛み]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [下腿部の痛み]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [足部の痛み]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [その他]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>上記で「その他」と回答した場合に記載</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>143</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>36.06892211888621</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>95.78528247646997</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>6.093599246658861</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>9.391917650216831</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>3.818961557528596</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>3.901452668595887</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>2.73440469418084</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>3.290462189065363</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>3.363967223553105</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>6.024866079660176</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>8.536667083700472</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>5.589010841221669</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>5.719512669927384</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>7.999114812638093</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>131</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>36.92807002359989</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>98.42798152667339</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>9.400358490215559</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>4.857873036487167</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>2.613373312625964</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>9.242999901596839</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>8.417379751200984</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>8.098097490942957</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>9.120337825736723</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>3.482932186750493</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>5.78224861223187</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>1.981433855937693</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>5.057670192951525</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>7.834620575022455</v>
       </c>
-      <c r="S3" t="s">
-        <v>33</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>138</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>37.03489069888253</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>98.08467668583907</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>7.856164296891711</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>9.571066752317213</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>7.726283073645615</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>5.811367886544194</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>9.039719630601262</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>3.342632263930581</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>3.949244103058975</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>3.104831403818945</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>3.056347025316878</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>2.104510441183174</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>5.417804382481348</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>1.536804764041998</v>
       </c>
-      <c r="S4" t="s">
-        <v>33</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>142</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>37.33015685972303</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>96.18804523879585</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>7.684240894595137</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>1.140595599774821</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>9.133221774298734</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>4.533812175854286</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>1.075756993408758</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>5.875184138695268</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>8.383492022476906</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>9.312446278724696</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>6.800837440779487</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>7.247353247163256</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>6.798634485319707</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>4.743803720153298</v>
       </c>
-      <c r="S5" t="s">
-        <v>33</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>143</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>37.15829840182759</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>98.27205290917921</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>7.447616699566456</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>3.707582178691642</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>8.994405577393668</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>5.332107956394769</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>2.134626117918367</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>5.766673364615092</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>6.524145105658148</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>9.503756443768417</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>9.999419255625915</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>5.919713158661333</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>8.261522526259999</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>6.676969477706532</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>138</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>37.24565676548703</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>98.25185868345534</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>1.002654635066005</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>8.245141924264365</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>4.394277076324689</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>1.257342097419977</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>1.607182189450592</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>3.045268226635798</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>7.061467268264648</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>3.274949479975501</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>5.02364680274639</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>9.484367133416775</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>4.928694306945545</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>9.659343907627653</v>
       </c>
-      <c r="S7" t="s">
-        <v>33</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>132</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>35.99159778106231</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>98.69741557964427</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>9.019596601865938</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>1.63992019600437</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>5.528058144361854</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>9.766093907088406</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>2.93201120489538</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>1.604936256315071</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>5.888354380689388</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>9.75541859487357</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>1.987571900985213</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>1.202517049285248</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>2.932886997193215</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>3.59218562024139</v>
       </c>
-      <c r="S8" t="s">
-        <v>33</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>142</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>36.15440064629841</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>98.66417640232753</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>7.480500402567129</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>6.742363412417435</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>7.473253032249807</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>2.61265903992353</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>4.612891928724742</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>8.668115286332879</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>8.864293530443884</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>8.839895223628112</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>2.48640085556599</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>8.955278837485011</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>3.638628595070259</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>4.54208568112065</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>146</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>36.01630053440167</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>96.27469048361611</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>5.730086587720683</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>5.406352954500522</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>8.180002862986196</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>5.627373901163054</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>2.228357382144432</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>5.415705642135184</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>7.192258510312559</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>8.869528648688876</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>1.512154030691937</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>8.727361508064453</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>8.676060450809008</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>8.476180032523548</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>144</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>37.10754594126263</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>98.52968019932456</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>5.352660918614565</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>3.539312306031531</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>8.281270327490398</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>9.268961737638371</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>5.718266858889693</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>3.140021565419961</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>5.821980468111462</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>9.007539975827585</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>9.055930671454535</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>3.570227850644811</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>9.077571211622962</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>9.449560662196735</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>131</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>36.65655304373183</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>95.13522905497294</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>1.973185089280932</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>1.736061637140072</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>9.814175300475593</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>1.864819421400085</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>1.95430791537793</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>5.562628628248492</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>2.08073887772297</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>4.903627526319569</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>4.72878652490877</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>1.256225724957293</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>2.08669637361527</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>3.40782693576105</v>
       </c>
-      <c r="S12" t="s">
-        <v>33</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>田中沙季</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>143</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>36.02694203978389</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>97.35614155936096</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>2.900869079768851</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>5.794594645003852</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>5.307143024350087</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>9.037733595817368</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>5.009818333980258</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>6.362627612527104</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>2.61986365953514</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>3.807054637530063</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>4.224692751038543</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>9.445995654353347</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>9.243863598495755</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>9.392605170984918</v>
       </c>
-      <c r="S13" t="s">
-        <v>33</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>